--- a/Aux_rais.xlsx
+++ b/Aux_rais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thalis\MEU\API google cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2458C-C023-4B66-88CC-7F699AC3F9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3F298F-4051-49A1-BFA3-7B503AEDA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{8C97B848-D638-439B-91F8-EDCFB97EF639}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="201">
   <si>
     <t>bairros_fortaleza</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Bairros</t>
   </si>
   <si>
-    <t>Tamanho Estabelecimento</t>
-  </si>
-  <si>
     <t>ZERO</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>IGNORADO</t>
   </si>
   <si>
-    <t>Tipo Estab</t>
-  </si>
-  <si>
     <t>CNPJ</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
     <t>Funcionario_empresa</t>
   </si>
   <si>
-    <t>IBGE Subsetor</t>
-  </si>
-  <si>
     <t>Extrativa mineral</t>
   </si>
   <si>
@@ -402,6 +393,255 @@
   </si>
   <si>
     <t>Subsetor</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>tamanho</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>subsetor_ibge</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -458,11 +698,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51264CB5-D4C4-495B-8EAF-7B3A6E8FA482}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,568 +1039,568 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
+      <c r="A51" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
+      <c r="A52" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
+      <c r="A53" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
+      <c r="A54" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
+      <c r="A56" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
+      <c r="A57" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
+      <c r="A58" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
+      <c r="A59" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
+      <c r="A61" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
+      <c r="A62" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
+      <c r="A65" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
+      <c r="A66" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
+      <c r="A67" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
+      <c r="A68" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
+      <c r="A70" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
+      <c r="A71" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
+      <c r="A72" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
@@ -1390,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F744A4-4B64-4802-BFD4-70D1225005B1}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,98 +1643,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B12" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1747,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,42 +1758,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>-1</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1564,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7585A60A-EA89-4A2C-B8BB-605DD57331B2}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,214 +1817,214 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B27" t="s">
